--- a/biology/Zoologie/Futabasaurus/Futabasaurus.xlsx
+++ b/biology/Zoologie/Futabasaurus/Futabasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Futabasaurus suzukii
 Futabasaurus est un genre éteint de plésiosaures, un membre basal de la famille des Elasmosauridae. Ses restes fossiles n'ont été découverts que sur un seul site au Japon, dans la région de Fukushima. Ils proviennent de sédiments du membre Irimazawa de la formation géologique de Tamayama, dans un niveau stratigraphique daté du Crétacé supérieur (Santonien inférieur), soit il y a environ 85 Ma (millions d'années). 
-Une seule espèce est rattachée au genre, Futabasaurus suzukii, décrite en 2006 par Tamaki Sato (d), Yoshikazu Hasegawa (d) et Makoto Manabe (d)[1].
+Une seule espèce est rattachée au genre, Futabasaurus suzukii, décrite en 2006 par Tamaki Sato (d), Yoshikazu Hasegawa (d) et Makoto Manabe (d).
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Futabasaurus a une longueur totale estimée entre 6,4 et 9,2 mètres[2], pour une masse d'environ 3 à 4 tonnes.
-Il se différencie des autres elasmosauridés par[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Futabasaurus a une longueur totale estimée entre 6,4 et 9,2 mètres, pour une masse d'environ 3 à 4 tonnes.
+Il se différencie des autres elasmosauridés par :
 un plus grand écartement entre ses orbites et ses nasaux ;
 les inter-clavicules et clavicules sont fusionnées ;
 les humérus sont relativement longs ;
@@ -548,9 +562,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique conduite par Rodrigo A. Otero en 2016 a conduit au cladogramme suivant qui montre la position de Futabasaurus au sein des Elasmosauridae[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique conduite par Rodrigo A. Otero en 2016 a conduit au cladogramme suivant qui montre la position de Futabasaurus au sein des Elasmosauridae
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Futabasaurus apparaît dans la série animée Dinosaur King et plus précisément dans l'épisode « Mine de rien ».
 </t>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Tamaki Sato, Yoshikazu Hasegawa et Makoto Manabe, « A New Elasmosaurid Plesiosaur from the Upper Cretaceous of Fukushima, Japan », Palaeontology, Londres, Wiley-Blackwell et Palaeontological Association (d), vol. 49, no 3,‎ mai 2006, p. 467-484 (ISSN 0031-0239 et 1475-4983, OCLC 44674714 et 1761779, DOI 10.1111/J.1475-4983.2006.00554.X, lire en ligne)</t>
         </is>
